--- a/assets/resources/templates/FedRAMP-Rev-4-to-Rev-5-Assessment-Controls-Selection-Template.xlsx
+++ b/assets/resources/templates/FedRAMP-Rev-4-to-Rev-5-Assessment-Controls-Selection-Template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Library/CloudStorage/GoogleDrive-shiva.alipour@theclearing.com/.shortcut-targets-by-id/0B-kDjNiRnhdvTS13YjR2d0VyTGM/Graphics/TC Visual Design/Client/GSA/FedRAMP/Documents/GSA-4783 FedRAMP Rev5 Updates/Done/FedRAMP Rev. 4 to Rev. 5 Assessment Controls Selection Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC760C-F2B0-1A4D-83B2-15566F6361AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F54C9D-EA2C-B740-8441-8B49FC65A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="25160" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="31960" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rev. 5 List of Controls - High" sheetId="1" r:id="rId1"/>
-    <sheet name="Rev. 5 List of Controls - Mod" sheetId="5" r:id="rId2"/>
+    <sheet name="Rev. 5 List of Controls - Mod." sheetId="5" r:id="rId2"/>
     <sheet name="Rev. 5 List of Controls - Low" sheetId="6" r:id="rId3"/>
     <sheet name="Conditional Controls - High" sheetId="2" r:id="rId4"/>
-    <sheet name="Conditional Controls - Moderate" sheetId="7" r:id="rId5"/>
+    <sheet name="Conditional Controls - Mod." sheetId="7" r:id="rId5"/>
     <sheet name="Conditional Controls - Low" sheetId="8" r:id="rId6"/>
     <sheet name="CSP-Specific Controls" sheetId="4" r:id="rId7"/>
     <sheet name="Inherited Controls" sheetId="3" r:id="rId8"/>
@@ -26,24 +26,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Conditional Controls - High'!$A$3:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Conditional Controls - Low'!$A$3:$E$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Conditional Controls - Moderate'!$A$3:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Conditional Controls - Mod.'!$A$3:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CSP-Specific Controls'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Inherited Controls'!$A$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rev. 5 List of Controls - High'!$E$8:$E$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rev. 5 List of Controls - Low'!$E$8:$E$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rev. 5 List of Controls - Mod'!$E$8:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rev. 5 List of Controls - Mod.'!$E$8:$E$106</definedName>
     <definedName name="_Toc149090437" localSheetId="0">'Rev. 5 List of Controls - High'!#REF!</definedName>
     <definedName name="_Toc149090437" localSheetId="2">'Rev. 5 List of Controls - Low'!#REF!</definedName>
-    <definedName name="_Toc149090437" localSheetId="1">'Rev. 5 List of Controls - Mod'!#REF!</definedName>
+    <definedName name="_Toc149090437" localSheetId="1">'Rev. 5 List of Controls - Mod.'!#REF!</definedName>
     <definedName name="_Toc149090475" localSheetId="0">'Rev. 5 List of Controls - High'!#REF!</definedName>
     <definedName name="_Toc149090475" localSheetId="2">'Rev. 5 List of Controls - Low'!#REF!</definedName>
-    <definedName name="_Toc149090475" localSheetId="1">'Rev. 5 List of Controls - Mod'!#REF!</definedName>
+    <definedName name="_Toc149090475" localSheetId="1">'Rev. 5 List of Controls - Mod.'!#REF!</definedName>
     <definedName name="_Toc383429286" localSheetId="0">'Rev. 5 List of Controls - High'!#REF!</definedName>
     <definedName name="_Toc383429286" localSheetId="2">'Rev. 5 List of Controls - Low'!#REF!</definedName>
-    <definedName name="_Toc383429286" localSheetId="1">'Rev. 5 List of Controls - Mod'!#REF!</definedName>
+    <definedName name="_Toc383429286" localSheetId="1">'Rev. 5 List of Controls - Mod.'!#REF!</definedName>
     <definedName name="_Toc383429734" localSheetId="0">'Rev. 5 List of Controls - High'!#REF!</definedName>
     <definedName name="_Toc383429734" localSheetId="2">'Rev. 5 List of Controls - Low'!#REF!</definedName>
-    <definedName name="_Toc383429734" localSheetId="1">'Rev. 5 List of Controls - Mod'!#REF!</definedName>
+    <definedName name="_Toc383429734" localSheetId="1">'Rev. 5 List of Controls - Mod.'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,6 +55,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1428,9 +1429,6 @@
 Incorporates data retention elements of withdrawn App J control DM-2</t>
   </si>
   <si>
-    <t>If the change described below has been previously tested, then the control does not need to be tested again. However, the analysis must be provided.</t>
-  </si>
-  <si>
     <t>Record of Changes for Template</t>
   </si>
   <si>
@@ -1474,6 +1472,9 @@
   </si>
   <si>
     <t>FedRAMP® Rev. 4 to Rev. 5 Assessment Controls - CSP Inherited Controls</t>
+  </si>
+  <si>
+    <t>If the change described below has been previously tested, then the control does not need to be tested again; however, the analysis must be provided.</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,8 +1584,15 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF1A4480"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1666,7 +1674,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1796,15 +1804,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,15 +1813,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2197,103 +2214,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7" t="s">
         <v>95</v>
       </c>
@@ -5141,103 +5158,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7" t="s">
         <v>95</v>
       </c>
@@ -8046,103 +8063,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7" t="s">
         <v>95</v>
       </c>
@@ -10599,22 +10616,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
@@ -12124,22 +12141,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
@@ -13350,22 +13367,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
@@ -13975,11 +13992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="A1" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
@@ -16081,14 +16098,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="59"/>
+      <c r="A1" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
@@ -18710,7 +18727,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -18722,88 +18739,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="50">
+        <v>45107</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="45">
-        <v>45107</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" s="54">
-        <v>1</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="50"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/assets/resources/templates/FedRAMP-Rev-4-to-Rev-5-Assessment-Controls-Selection-Template.xlsx
+++ b/assets/resources/templates/FedRAMP-Rev-4-to-Rev-5-Assessment-Controls-Selection-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2DECBE-49C4-A745-852F-84531D2E72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2EF73-0BC9-DC4F-9EE6-DADAF636CDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1540" windowWidth="29220" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30100" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rev. 5 List of Controls - High" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Conditional Controls - Mod.'!$A$3:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CSP-Specific Controls'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Inherited Controls'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rev. 5 List of Controls - High'!$E$8:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rev. 5 List of Controls - High'!$E$8:$E$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rev. 5 List of Controls - Low'!$E$8:$E$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rev. 5 List of Controls - Mod.'!$E$8:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rev. 5 List of Controls - Mod.'!$E$8:$E$107</definedName>
     <definedName name="_Toc149090437" localSheetId="0">'Rev. 5 List of Controls - High'!#REF!</definedName>
     <definedName name="_Toc149090437" localSheetId="2">'Rev. 5 List of Controls - Low'!#REF!</definedName>
     <definedName name="_Toc149090437" localSheetId="1">'Rev. 5 List of Controls - Mod.'!#REF!</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="417">
   <si>
     <t>Control ID</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>Removed a duplicate control and eliminated an incorrect reference to a control</t>
+  </si>
+  <si>
+    <t>CA-8 (2)</t>
+  </si>
+  <si>
+    <t>Added CA-8 (2) as a New control to the High and Moderate tabs</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
@@ -2349,8 +2355,8 @@
       <c r="H9" s="23"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25">
-        <f>COUNTA(C9:C450)+COUNTA(D9:D450)+COUNTA(E9:E450)+COUNTA(G9:G450)+COUNTA(H9:H450)</f>
-        <v>138</v>
+        <f>COUNTA(C9:C451)+COUNTA(D9:D451)+COUNTA(E9:E451)+COUNTA(G9:G451)+COUNTA(H9:H451)</f>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -2984,12 +2990,12 @@
         <v>35</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="20">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20"/>
+        <v>415</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
       <c r="E43" s="22"/>
       <c r="F43" s="20">
         <v>35</v>
@@ -3004,7 +3010,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="13">
         <v>1</v>
@@ -3022,12 +3028,12 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20"/>
       <c r="E45" s="22"/>
       <c r="F45" s="20">
         <v>37</v>
@@ -3042,7 +3048,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
@@ -3060,12 +3066,12 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="20">
-        <v>1</v>
-      </c>
-      <c r="D47" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20">
+        <v>1</v>
+      </c>
       <c r="E47" s="22"/>
       <c r="F47" s="20">
         <v>39</v>
@@ -3080,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C48" s="13">
         <v>1</v>
@@ -3098,12 +3104,12 @@
         <v>41</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20"/>
       <c r="E49" s="22"/>
       <c r="F49" s="20">
         <v>41</v>
@@ -3118,12 +3124,12 @@
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
       <c r="E50" s="16"/>
       <c r="F50" s="13">
         <v>42</v>
@@ -3136,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C51" s="20">
         <v>1</v>
@@ -3156,7 +3162,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C52" s="13">
         <v>1</v>
@@ -3174,7 +3180,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="20">
         <v>1</v>
@@ -3194,7 +3200,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="13">
         <v>1</v>
@@ -3212,7 +3218,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="C55" s="20">
         <v>1</v>
@@ -3232,7 +3238,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="C56" s="13">
         <v>1</v>
@@ -3250,12 +3256,12 @@
         <v>49</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20"/>
       <c r="E57" s="22"/>
       <c r="F57" s="20">
         <v>49</v>
@@ -3270,12 +3276,12 @@
         <v>50</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13"/>
+        <v>380</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
       <c r="E58" s="16"/>
       <c r="F58" s="13">
         <v>50</v>
@@ -3288,7 +3294,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="20">
         <v>1</v>
@@ -3296,7 +3302,6 @@
       <c r="D59" s="20"/>
       <c r="E59" s="22"/>
       <c r="F59" s="20">
-        <f>F58+1</f>
         <v>51</v>
       </c>
       <c r="G59" s="23"/>
@@ -3309,7 +3314,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="13">
         <v>1</v>
@@ -3317,7 +3322,6 @@
       <c r="D60" s="13"/>
       <c r="E60" s="16"/>
       <c r="F60" s="13">
-        <f t="shared" ref="F60:F123" si="0">F59+1</f>
         <v>52</v>
       </c>
       <c r="I60" s="17"/>
@@ -3328,7 +3332,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="20">
         <v>1</v>
@@ -3336,7 +3340,6 @@
       <c r="D61" s="20"/>
       <c r="E61" s="22"/>
       <c r="F61" s="20">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G61" s="23"/>
@@ -3349,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C62" s="13">
         <v>1</v>
@@ -3357,7 +3360,6 @@
       <c r="D62" s="13"/>
       <c r="E62" s="16"/>
       <c r="F62" s="13">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="I62" s="17"/>
@@ -3368,15 +3370,14 @@
         <v>55</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20"/>
       <c r="E63" s="22"/>
       <c r="F63" s="20">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G63" s="23"/>
@@ -3389,15 +3390,14 @@
         <v>56</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
       <c r="E64" s="16"/>
       <c r="F64" s="13">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="I64" s="17"/>
@@ -3408,15 +3408,14 @@
         <v>57</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="E65" s="22"/>
       <c r="F65" s="20">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="G65" s="23"/>
@@ -3429,7 +3428,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13">
@@ -3437,7 +3436,6 @@
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="13">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="I66" s="17"/>
@@ -3448,7 +3446,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20">
@@ -3456,7 +3454,6 @@
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="20">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G67" s="23"/>
@@ -3469,7 +3466,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13">
@@ -3477,7 +3474,6 @@
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="13">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="I68" s="17"/>
@@ -3488,7 +3484,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20">
@@ -3496,7 +3492,6 @@
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="20">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="G69" s="23"/>
@@ -3506,10 +3501,10 @@
     </row>
     <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13">
@@ -3517,7 +3512,6 @@
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="13">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="I70" s="17"/>
@@ -3528,15 +3522,14 @@
         <v>63</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="20">
-        <v>1</v>
-      </c>
-      <c r="D71" s="20"/>
+        <v>131</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20">
+        <v>1</v>
+      </c>
       <c r="E71" s="22"/>
       <c r="F71" s="20">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="G71" s="23"/>
@@ -3549,7 +3542,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="13">
         <v>1</v>
@@ -3557,7 +3550,6 @@
       <c r="D72" s="13"/>
       <c r="E72" s="16"/>
       <c r="F72" s="13">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="I72" s="17"/>
@@ -3568,7 +3560,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="20">
         <v>1</v>
@@ -3576,7 +3568,6 @@
       <c r="D73" s="20"/>
       <c r="E73" s="22"/>
       <c r="F73" s="20">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="G73" s="23"/>
@@ -3589,7 +3580,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="13">
         <v>1</v>
@@ -3597,7 +3588,6 @@
       <c r="D74" s="13"/>
       <c r="E74" s="16"/>
       <c r="F74" s="13">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="I74" s="17"/>
@@ -3608,7 +3598,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="20">
         <v>1</v>
@@ -3616,7 +3606,6 @@
       <c r="D75" s="20"/>
       <c r="E75" s="22"/>
       <c r="F75" s="20">
-        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="G75" s="23"/>
@@ -3629,7 +3618,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="13">
         <v>1</v>
@@ -3637,7 +3626,6 @@
       <c r="D76" s="13"/>
       <c r="E76" s="16"/>
       <c r="F76" s="13">
-        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="I76" s="17"/>
@@ -3648,15 +3636,14 @@
         <v>69</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1</v>
+      </c>
+      <c r="D77" s="20"/>
       <c r="E77" s="22"/>
       <c r="F77" s="20">
-        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G77" s="23"/>
@@ -3669,15 +3656,14 @@
         <v>70</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
       <c r="E78" s="16"/>
       <c r="F78" s="13">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I78" s="17"/>
@@ -3688,15 +3674,14 @@
         <v>71</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20"/>
       <c r="E79" s="22"/>
       <c r="F79" s="20">
-        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="G79" s="23"/>
@@ -3709,15 +3694,14 @@
         <v>72</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1</v>
-      </c>
-      <c r="D80" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
       <c r="E80" s="16"/>
       <c r="F80" s="13">
-        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="I80" s="17"/>
@@ -3728,7 +3712,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C81" s="20">
         <v>1</v>
@@ -3736,7 +3720,6 @@
       <c r="D81" s="20"/>
       <c r="E81" s="22"/>
       <c r="F81" s="20">
-        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="G81" s="23"/>
@@ -3749,7 +3732,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C82" s="13">
         <v>1</v>
@@ -3757,7 +3740,6 @@
       <c r="D82" s="13"/>
       <c r="E82" s="16"/>
       <c r="F82" s="13">
-        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="I82" s="17"/>
@@ -3768,7 +3750,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="20">
         <v>1</v>
@@ -3776,7 +3758,6 @@
       <c r="D83" s="20"/>
       <c r="E83" s="22"/>
       <c r="F83" s="20">
-        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="G83" s="23"/>
@@ -3789,7 +3770,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="13">
         <v>1</v>
@@ -3797,7 +3778,6 @@
       <c r="D84" s="13"/>
       <c r="E84" s="16"/>
       <c r="F84" s="13">
-        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="I84" s="17"/>
@@ -3808,7 +3788,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C85" s="20">
         <v>1</v>
@@ -3816,7 +3796,6 @@
       <c r="D85" s="20"/>
       <c r="E85" s="22"/>
       <c r="F85" s="20">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G85" s="23"/>
@@ -3829,7 +3808,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="13">
         <v>1</v>
@@ -3837,7 +3816,6 @@
       <c r="D86" s="13"/>
       <c r="E86" s="16"/>
       <c r="F86" s="13">
-        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="I86" s="17"/>
@@ -3848,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="20">
         <v>1</v>
@@ -3856,7 +3834,6 @@
       <c r="D87" s="20"/>
       <c r="E87" s="22"/>
       <c r="F87" s="20">
-        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="G87" s="23"/>
@@ -3869,7 +3846,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="13">
         <v>1</v>
@@ -3877,7 +3854,6 @@
       <c r="D88" s="13"/>
       <c r="E88" s="16"/>
       <c r="F88" s="13">
-        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I88" s="17"/>
@@ -3888,7 +3864,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="20">
         <v>1</v>
@@ -3896,7 +3872,6 @@
       <c r="D89" s="20"/>
       <c r="E89" s="22"/>
       <c r="F89" s="20">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="G89" s="23"/>
@@ -3909,7 +3884,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="13">
         <v>1</v>
@@ -3917,7 +3892,6 @@
       <c r="D90" s="13"/>
       <c r="E90" s="16"/>
       <c r="F90" s="13">
-        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="I90" s="17"/>
@@ -3928,7 +3902,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="20">
         <v>1</v>
@@ -3936,7 +3910,6 @@
       <c r="D91" s="20"/>
       <c r="E91" s="22"/>
       <c r="F91" s="20">
-        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="G91" s="23"/>
@@ -3949,15 +3922,14 @@
         <v>84</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="16"/>
       <c r="F92" s="13">
-        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="I92" s="17"/>
@@ -3968,7 +3940,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20">
@@ -3976,7 +3948,6 @@
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="20">
-        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="G93" s="23"/>
@@ -3989,15 +3960,14 @@
         <v>86</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1</v>
-      </c>
-      <c r="D94" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13">
+        <v>1</v>
+      </c>
       <c r="E94" s="16"/>
       <c r="F94" s="13">
-        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="I94" s="17"/>
@@ -4008,7 +3978,7 @@
         <v>87</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C95" s="20">
         <v>1</v>
@@ -4016,7 +3986,6 @@
       <c r="D95" s="20"/>
       <c r="E95" s="22"/>
       <c r="F95" s="20">
-        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="G95" s="23"/>
@@ -4029,7 +3998,7 @@
         <v>88</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>377</v>
+        <v>91</v>
       </c>
       <c r="C96" s="13">
         <v>1</v>
@@ -4037,7 +4006,6 @@
       <c r="D96" s="13"/>
       <c r="E96" s="16"/>
       <c r="F96" s="13">
-        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="I96" s="17"/>
@@ -4048,7 +4016,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="C97" s="20">
         <v>1</v>
@@ -4056,7 +4024,6 @@
       <c r="D97" s="20"/>
       <c r="E97" s="22"/>
       <c r="F97" s="20">
-        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="G97" s="23"/>
@@ -4069,7 +4036,7 @@
         <v>90</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C98" s="13">
         <v>1</v>
@@ -4077,7 +4044,6 @@
       <c r="D98" s="13"/>
       <c r="E98" s="16"/>
       <c r="F98" s="13">
-        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="I98" s="17"/>
@@ -4088,7 +4054,7 @@
         <v>91</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="20">
         <v>1</v>
@@ -4096,7 +4062,6 @@
       <c r="D99" s="20"/>
       <c r="E99" s="22"/>
       <c r="F99" s="20">
-        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="G99" s="23"/>
@@ -4109,7 +4074,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C100" s="13">
         <v>1</v>
@@ -4117,7 +4082,6 @@
       <c r="D100" s="13"/>
       <c r="E100" s="16"/>
       <c r="F100" s="13">
-        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I100" s="17"/>
@@ -4128,7 +4092,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C101" s="20">
         <v>1</v>
@@ -4136,7 +4100,6 @@
       <c r="D101" s="20"/>
       <c r="E101" s="22"/>
       <c r="F101" s="20">
-        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="G101" s="23"/>
@@ -4149,15 +4112,14 @@
         <v>94</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="16"/>
       <c r="F102" s="13">
-        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="I102" s="17"/>
@@ -4168,15 +4130,14 @@
         <v>95</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="20">
-        <v>1</v>
-      </c>
-      <c r="D103" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20">
+        <v>1</v>
+      </c>
       <c r="E103" s="22"/>
       <c r="F103" s="20">
-        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="G103" s="23"/>
@@ -4189,15 +4150,14 @@
         <v>96</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13"/>
       <c r="E104" s="16"/>
       <c r="F104" s="13">
-        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="I104" s="17"/>
@@ -4208,15 +4168,14 @@
         <v>97</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C105" s="20">
-        <v>1</v>
-      </c>
-      <c r="D105" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20">
+        <v>1</v>
+      </c>
       <c r="E105" s="22"/>
       <c r="F105" s="20">
-        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G105" s="23"/>
@@ -4229,35 +4188,32 @@
         <v>98</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1</v>
+      </c>
+      <c r="D106" s="13"/>
       <c r="E106" s="16"/>
       <c r="F106" s="13">
-        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="G106" s="19"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20">
         <v>99</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="20">
-        <v>1</v>
-      </c>
-      <c r="D107" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20">
+        <v>1</v>
+      </c>
       <c r="E107" s="22"/>
       <c r="F107" s="20">
-        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G107" s="23"/>
@@ -4270,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="C108" s="13">
         <v>1</v>
@@ -4278,7 +4234,6 @@
       <c r="D108" s="13"/>
       <c r="E108" s="16"/>
       <c r="F108" s="13">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I108" s="17"/>
@@ -4289,15 +4244,14 @@
         <v>101</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20">
-        <v>1</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C109" s="20">
+        <v>1</v>
+      </c>
+      <c r="D109" s="20"/>
       <c r="E109" s="22"/>
       <c r="F109" s="20">
-        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G109" s="23"/>
@@ -4310,7 +4264,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="13">
@@ -4318,7 +4272,6 @@
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="13">
-        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="I110" s="17"/>
@@ -4329,15 +4282,14 @@
         <v>103</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="20">
-        <v>1</v>
-      </c>
-      <c r="D111" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20">
+        <v>1</v>
+      </c>
       <c r="E111" s="22"/>
       <c r="F111" s="20">
-        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="G111" s="23"/>
@@ -4350,15 +4302,14 @@
         <v>104</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1</v>
+      </c>
+      <c r="D112" s="13"/>
       <c r="E112" s="16"/>
       <c r="F112" s="13">
-        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="I112" s="17"/>
@@ -4369,7 +4320,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20">
@@ -4377,7 +4328,6 @@
       </c>
       <c r="E113" s="22"/>
       <c r="F113" s="20">
-        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="G113" s="23"/>
@@ -4390,7 +4340,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13">
@@ -4398,7 +4348,6 @@
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="13">
-        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="I114" s="17"/>
@@ -4409,7 +4358,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20">
@@ -4417,7 +4366,6 @@
       </c>
       <c r="E115" s="22"/>
       <c r="F115" s="20">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="G115" s="23"/>
@@ -4430,15 +4378,14 @@
         <v>108</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C116" s="13">
-        <v>1</v>
-      </c>
-      <c r="D116" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13">
+        <v>1</v>
+      </c>
       <c r="E116" s="16"/>
       <c r="F116" s="13">
-        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="I116" s="17"/>
@@ -4449,7 +4396,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C117" s="20">
         <v>1</v>
@@ -4457,7 +4404,6 @@
       <c r="D117" s="20"/>
       <c r="E117" s="22"/>
       <c r="F117" s="20">
-        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="G117" s="23"/>
@@ -4470,7 +4416,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C118" s="13">
         <v>1</v>
@@ -4478,7 +4424,6 @@
       <c r="D118" s="13"/>
       <c r="E118" s="16"/>
       <c r="F118" s="13">
-        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="I118" s="17"/>
@@ -4489,7 +4434,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="C119" s="20">
         <v>1</v>
@@ -4497,7 +4442,6 @@
       <c r="D119" s="20"/>
       <c r="E119" s="22"/>
       <c r="F119" s="20">
-        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="G119" s="23"/>
@@ -4510,7 +4454,7 @@
         <v>112</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="C120" s="13">
         <v>1</v>
@@ -4518,7 +4462,6 @@
       <c r="D120" s="13"/>
       <c r="E120" s="16"/>
       <c r="F120" s="13">
-        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="I120" s="17"/>
@@ -4529,7 +4472,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="20">
         <v>1</v>
@@ -4537,7 +4480,6 @@
       <c r="D121" s="20"/>
       <c r="E121" s="22"/>
       <c r="F121" s="20">
-        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="G121" s="23"/>
@@ -4550,7 +4492,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C122" s="13">
         <v>1</v>
@@ -4558,7 +4500,6 @@
       <c r="D122" s="13"/>
       <c r="E122" s="16"/>
       <c r="F122" s="13">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="I122" s="17"/>
@@ -4569,7 +4510,7 @@
         <v>115</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C123" s="20">
         <v>1</v>
@@ -4577,7 +4518,6 @@
       <c r="D123" s="20"/>
       <c r="E123" s="22"/>
       <c r="F123" s="20">
-        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="G123" s="23"/>
@@ -4590,7 +4530,7 @@
         <v>116</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C124" s="13">
         <v>1</v>
@@ -4598,7 +4538,6 @@
       <c r="D124" s="13"/>
       <c r="E124" s="16"/>
       <c r="F124" s="13">
-        <f t="shared" ref="F124:F149" si="1">F123+1</f>
         <v>116</v>
       </c>
       <c r="I124" s="17"/>
@@ -4609,15 +4548,14 @@
         <v>117</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C125" s="20">
+        <v>1</v>
+      </c>
+      <c r="D125" s="20"/>
       <c r="E125" s="22"/>
       <c r="F125" s="20">
-        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="G125" s="23"/>
@@ -4630,7 +4568,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13">
@@ -4638,7 +4576,6 @@
       </c>
       <c r="E126" s="16"/>
       <c r="F126" s="13">
-        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="I126" s="17"/>
@@ -4649,15 +4586,14 @@
         <v>119</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" s="20">
-        <v>1</v>
-      </c>
-      <c r="D127" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20">
+        <v>1</v>
+      </c>
       <c r="E127" s="22"/>
       <c r="F127" s="20">
-        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="G127" s="23"/>
@@ -4670,7 +4606,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C128" s="13">
         <v>1</v>
@@ -4678,7 +4614,6 @@
       <c r="D128" s="13"/>
       <c r="E128" s="16"/>
       <c r="F128" s="13">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I128" s="17"/>
@@ -4689,7 +4624,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C129" s="20">
         <v>1</v>
@@ -4697,7 +4632,6 @@
       <c r="D129" s="20"/>
       <c r="E129" s="22"/>
       <c r="F129" s="20">
-        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="G129" s="23"/>
@@ -4710,7 +4644,7 @@
         <v>122</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C130" s="13">
         <v>1</v>
@@ -4718,7 +4652,6 @@
       <c r="D130" s="13"/>
       <c r="E130" s="16"/>
       <c r="F130" s="13">
-        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="I130" s="17"/>
@@ -4729,15 +4662,14 @@
         <v>123</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C131" s="20">
+        <v>1</v>
+      </c>
+      <c r="D131" s="20"/>
       <c r="E131" s="22"/>
       <c r="F131" s="20">
-        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="G131" s="23"/>
@@ -4750,15 +4682,14 @@
         <v>124</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="13">
-        <v>1</v>
-      </c>
-      <c r="D132" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
       <c r="E132" s="16"/>
       <c r="F132" s="13">
-        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="I132" s="17"/>
@@ -4769,15 +4700,14 @@
         <v>125</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C133" s="20">
+        <v>1</v>
+      </c>
+      <c r="D133" s="20"/>
       <c r="E133" s="22"/>
       <c r="F133" s="20">
-        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="G133" s="23"/>
@@ -4790,7 +4720,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13">
@@ -4798,7 +4728,6 @@
       </c>
       <c r="E134" s="16"/>
       <c r="F134" s="13">
-        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="I134" s="17"/>
@@ -4809,7 +4738,7 @@
         <v>127</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="20">
@@ -4817,7 +4746,6 @@
       </c>
       <c r="E135" s="22"/>
       <c r="F135" s="20">
-        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="G135" s="23"/>
@@ -4830,7 +4758,7 @@
         <v>128</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13">
@@ -4838,7 +4766,6 @@
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="13">
-        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="I136" s="17"/>
@@ -4849,7 +4776,7 @@
         <v>129</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20">
@@ -4857,7 +4784,6 @@
       </c>
       <c r="E137" s="22"/>
       <c r="F137" s="20">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="G137" s="23"/>
@@ -4870,7 +4796,7 @@
         <v>130</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
@@ -4878,7 +4804,6 @@
       </c>
       <c r="E138" s="16"/>
       <c r="F138" s="13">
-        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="I138" s="17"/>
@@ -4889,7 +4814,7 @@
         <v>131</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20">
@@ -4897,7 +4822,6 @@
       </c>
       <c r="E139" s="22"/>
       <c r="F139" s="20">
-        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="G139" s="23"/>
@@ -4910,7 +4834,7 @@
         <v>132</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13">
@@ -4918,7 +4842,6 @@
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="13">
-        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="I140" s="17"/>
@@ -4929,7 +4852,7 @@
         <v>133</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20">
@@ -4937,7 +4860,6 @@
       </c>
       <c r="E141" s="22"/>
       <c r="F141" s="20">
-        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="G141" s="23"/>
@@ -4950,7 +4872,7 @@
         <v>134</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13">
@@ -4958,7 +4880,6 @@
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="13">
-        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="I142" s="17"/>
@@ -4969,7 +4890,7 @@
         <v>135</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20">
@@ -4977,7 +4898,6 @@
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="20">
-        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="G143" s="23"/>
@@ -4990,7 +4910,7 @@
         <v>136</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13">
@@ -4998,7 +4918,6 @@
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="13">
-        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="I144" s="17"/>
@@ -5009,7 +4928,7 @@
         <v>137</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="20">
@@ -5017,7 +4936,6 @@
       </c>
       <c r="E145" s="22"/>
       <c r="F145" s="20">
-        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="G145" s="23"/>
@@ -5030,7 +4948,7 @@
         <v>138</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13">
@@ -5038,7 +4956,6 @@
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="13">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="I146" s="17"/>
@@ -5048,12 +4965,15 @@
       <c r="A147" s="20">
         <v>139</v>
       </c>
-      <c r="B147" s="21"/>
+      <c r="B147" s="21" t="s">
+        <v>156</v>
+      </c>
       <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="20">
+        <v>1</v>
+      </c>
       <c r="E147" s="22"/>
       <c r="F147" s="20">
-        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="G147" s="23"/>
@@ -5065,12 +4985,11 @@
       <c r="A148" s="13">
         <v>140</v>
       </c>
-      <c r="B148" s="13"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="16"/>
       <c r="F148" s="13">
-        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="I148" s="17"/>
@@ -5080,12 +4999,11 @@
       <c r="A149" s="20">
         <v>141</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="22"/>
       <c r="F149" s="20">
-        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="G149" s="23"/>
@@ -5093,9 +5011,23 @@
       <c r="I149" s="24"/>
       <c r="J149" s="20"/>
     </row>
+    <row r="150" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13">
+        <v>142</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="13">
+        <v>142</v>
+      </c>
+      <c r="I150" s="17"/>
+      <c r="J150" s="13"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:D146">
-    <sortCondition ref="B9:B146"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:D147">
+    <sortCondition ref="B9:B147"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A4:E4"/>
@@ -5118,7 +5050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E053433B-0DD9-49E6-9B39-87C739D66A22}">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
@@ -5289,8 +5221,8 @@
       <c r="H9" s="23"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25">
-        <f>COUNTA(C9:C450)+COUNTA(D9:D450)+COUNTA(E9:E450)+COUNTA(G9:G450)+COUNTA(H9:H450)</f>
-        <v>129</v>
+        <f>COUNTA(C9:C451)+COUNTA(D9:D451)+COUNTA(E9:E451)+COUNTA(G9:G451)+COUNTA(H9:H451)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -5383,7 +5315,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
       <c r="F14" s="13">
-        <f t="shared" ref="F14:F77" si="0">F13+1</f>
+        <f t="shared" ref="F14:F78" si="0">F13+1</f>
         <v>6</v>
       </c>
       <c r="I14" s="17"/>
@@ -5935,12 +5867,12 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="13">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>415</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
       <c r="E42" s="16"/>
       <c r="F42" s="13">
         <f t="shared" si="0"/>
@@ -5954,7 +5886,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="20">
         <v>1</v>
@@ -5975,12 +5907,12 @@
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13"/>
       <c r="E44" s="16"/>
       <c r="F44" s="13">
         <f t="shared" si="0"/>
@@ -5994,7 +5926,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20">
@@ -6015,12 +5947,12 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
       <c r="E46" s="16"/>
       <c r="F46" s="13">
         <f t="shared" si="0"/>
@@ -6034,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C47" s="20">
         <v>1</v>
@@ -6055,12 +5987,12 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13"/>
       <c r="E48" s="16"/>
       <c r="F48" s="13">
         <f t="shared" si="0"/>
@@ -6074,7 +6006,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20">
@@ -6095,7 +6027,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13">
@@ -6114,12 +6046,12 @@
         <v>43</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="20">
-        <v>1</v>
-      </c>
-      <c r="D51" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
       <c r="E51" s="22"/>
       <c r="F51" s="20">
         <f t="shared" si="0"/>
@@ -6135,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C52" s="13">
         <v>1</v>
@@ -6154,7 +6086,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C53" s="20">
         <v>1</v>
@@ -6175,7 +6107,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="13">
         <v>1</v>
@@ -6194,7 +6126,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="20">
         <v>1</v>
@@ -6215,7 +6147,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="C56" s="13">
         <v>1</v>
@@ -6234,7 +6166,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="C57" s="20">
         <v>1</v>
@@ -6255,7 +6187,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="13">
         <v>1</v>
@@ -6274,7 +6206,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="20">
         <v>1</v>
@@ -6295,7 +6227,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="13">
         <v>1</v>
@@ -6314,7 +6246,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="20">
         <v>1</v>
@@ -6335,7 +6267,7 @@
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C62" s="13">
         <v>1</v>
@@ -6354,12 +6286,12 @@
         <v>55</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20"/>
       <c r="E63" s="22"/>
       <c r="F63" s="20">
         <f t="shared" si="0"/>
@@ -6375,12 +6307,12 @@
         <v>56</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
       <c r="E64" s="16"/>
       <c r="F64" s="13">
         <f t="shared" si="0"/>
@@ -6394,12 +6326,12 @@
         <v>57</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="E65" s="22"/>
       <c r="F65" s="20">
         <f t="shared" si="0"/>
@@ -6415,7 +6347,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13">
@@ -6434,7 +6366,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20">
@@ -6455,7 +6387,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13">
@@ -6474,7 +6406,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20">
@@ -6495,12 +6427,12 @@
         <v>62</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1</v>
-      </c>
-      <c r="D70" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
       <c r="E70" s="16"/>
       <c r="F70" s="13">
         <f t="shared" si="0"/>
@@ -6514,7 +6446,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="20">
         <v>1</v>
@@ -6535,7 +6467,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="13">
         <v>1</v>
@@ -6554,7 +6486,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="20">
         <v>1</v>
@@ -6575,7 +6507,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="13">
         <v>1</v>
@@ -6594,7 +6526,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="20">
         <v>1</v>
@@ -6615,7 +6547,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" s="13">
         <v>1</v>
@@ -6634,12 +6566,12 @@
         <v>69</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1</v>
+      </c>
+      <c r="D77" s="20"/>
       <c r="E77" s="22"/>
       <c r="F77" s="20">
         <f t="shared" si="0"/>
@@ -6655,15 +6587,15 @@
         <v>70</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
       <c r="E78" s="16"/>
       <c r="F78" s="13">
-        <f t="shared" ref="F78:F141" si="1">F77+1</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I78" s="17"/>
@@ -6674,7 +6606,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C79" s="20">
         <v>1</v>
@@ -6682,7 +6614,7 @@
       <c r="D79" s="20"/>
       <c r="E79" s="22"/>
       <c r="F79" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F79:F142" si="1">F78+1</f>
         <v>71</v>
       </c>
       <c r="G79" s="23"/>
@@ -6695,7 +6627,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C80" s="13">
         <v>1</v>
@@ -6714,7 +6646,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="20">
         <v>1</v>
@@ -6735,7 +6667,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="13">
         <v>1</v>
@@ -6754,7 +6686,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C83" s="20">
         <v>1</v>
@@ -6775,12 +6707,12 @@
         <v>76</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13"/>
       <c r="E84" s="16"/>
       <c r="F84" s="13">
         <f t="shared" si="1"/>
@@ -6794,12 +6726,12 @@
         <v>77</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="20">
-        <v>1</v>
-      </c>
-      <c r="D85" s="20"/>
+        <v>374</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20">
+        <v>1</v>
+      </c>
       <c r="E85" s="22"/>
       <c r="F85" s="20">
         <f t="shared" si="1"/>
@@ -6815,7 +6747,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="13">
         <v>1</v>
@@ -6834,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="20">
         <v>1</v>
@@ -6855,7 +6787,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="13">
         <v>1</v>
@@ -6874,7 +6806,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="20">
         <v>1</v>
@@ -6895,12 +6827,12 @@
         <v>82</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="13"/>
       <c r="E90" s="16"/>
       <c r="F90" s="13">
         <f t="shared" si="1"/>
@@ -6914,7 +6846,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20">
@@ -6935,12 +6867,12 @@
         <v>84</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1</v>
-      </c>
-      <c r="D92" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
       <c r="E92" s="16"/>
       <c r="F92" s="13">
         <f t="shared" si="1"/>
@@ -6954,7 +6886,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C93" s="20">
         <v>1</v>
@@ -6975,7 +6907,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C94" s="13">
         <v>1</v>
@@ -6994,7 +6926,7 @@
         <v>87</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>377</v>
+        <v>59</v>
       </c>
       <c r="C95" s="20">
         <v>1</v>
@@ -7015,7 +6947,7 @@
         <v>88</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="C96" s="13">
         <v>1</v>
@@ -7034,7 +6966,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="20">
         <v>1</v>
@@ -7055,7 +6987,7 @@
         <v>90</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C98" s="13">
         <v>1</v>
@@ -7074,7 +7006,7 @@
         <v>91</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C99" s="20">
         <v>1</v>
@@ -7095,12 +7027,12 @@
         <v>92</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="16"/>
       <c r="F100" s="13">
         <f t="shared" si="1"/>
@@ -7114,12 +7046,12 @@
         <v>93</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="20">
-        <v>1</v>
-      </c>
-      <c r="D101" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20">
+        <v>1</v>
+      </c>
       <c r="E101" s="22"/>
       <c r="F101" s="20">
         <f t="shared" si="1"/>
@@ -7135,12 +7067,12 @@
         <v>94</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="16"/>
       <c r="F102" s="13">
         <f t="shared" si="1"/>
@@ -7154,12 +7086,12 @@
         <v>95</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="20">
-        <v>1</v>
-      </c>
-      <c r="D103" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20">
+        <v>1</v>
+      </c>
       <c r="E103" s="22"/>
       <c r="F103" s="20">
         <f t="shared" si="1"/>
@@ -7175,12 +7107,12 @@
         <v>96</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13"/>
       <c r="E104" s="16"/>
       <c r="F104" s="13">
         <f t="shared" si="1"/>
@@ -7194,12 +7126,12 @@
         <v>97</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="20">
-        <v>1</v>
-      </c>
-      <c r="D105" s="20"/>
+        <v>138</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20">
+        <v>1</v>
+      </c>
       <c r="E105" s="22"/>
       <c r="F105" s="20">
         <f t="shared" si="1"/>
@@ -7215,7 +7147,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="C106" s="13">
         <v>1</v>
@@ -7226,21 +7158,20 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="G106" s="19"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20">
         <v>99</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20">
-        <v>1</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1</v>
+      </c>
+      <c r="D107" s="20"/>
       <c r="E107" s="22"/>
       <c r="F107" s="20">
         <f t="shared" si="1"/>
@@ -7256,7 +7187,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13">
@@ -7275,12 +7206,12 @@
         <v>101</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="20">
-        <v>1</v>
-      </c>
-      <c r="D109" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20">
+        <v>1</v>
+      </c>
       <c r="E109" s="22"/>
       <c r="F109" s="20">
         <f t="shared" si="1"/>
@@ -7296,12 +7227,12 @@
         <v>102</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1</v>
+      </c>
+      <c r="D110" s="13"/>
       <c r="E110" s="16"/>
       <c r="F110" s="13">
         <f t="shared" si="1"/>
@@ -7315,7 +7246,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20">
@@ -7336,7 +7267,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13">
@@ -7355,12 +7286,12 @@
         <v>105</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="20">
-        <v>1</v>
-      </c>
-      <c r="D113" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20">
+        <v>1</v>
+      </c>
       <c r="E113" s="22"/>
       <c r="F113" s="20">
         <f t="shared" si="1"/>
@@ -7376,7 +7307,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C114" s="13">
         <v>1</v>
@@ -7395,7 +7326,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="C115" s="20">
         <v>1</v>
@@ -7416,7 +7347,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="C116" s="13">
         <v>1</v>
@@ -7435,7 +7366,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="20">
         <v>1</v>
@@ -7456,7 +7387,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C118" s="13">
         <v>1</v>
@@ -7475,7 +7406,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C119" s="20">
         <v>1</v>
@@ -7496,7 +7427,7 @@
         <v>112</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C120" s="13">
         <v>1</v>
@@ -7515,7 +7446,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C121" s="20">
         <v>1</v>
@@ -7536,7 +7467,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C122" s="13">
         <v>1</v>
@@ -7555,7 +7486,7 @@
         <v>115</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C123" s="20">
         <v>1</v>
@@ -7576,7 +7507,7 @@
         <v>116</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C124" s="13">
         <v>1</v>
@@ -7595,7 +7526,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C125" s="20">
         <v>1</v>
@@ -7616,12 +7547,12 @@
         <v>118</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C126" s="13">
+        <v>1</v>
+      </c>
+      <c r="D126" s="13"/>
       <c r="E126" s="16"/>
       <c r="F126" s="13">
         <f t="shared" si="1"/>
@@ -7635,7 +7566,7 @@
         <v>119</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20">
@@ -7656,7 +7587,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13">
@@ -7675,7 +7606,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20">
@@ -7696,7 +7627,7 @@
         <v>122</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13">
@@ -7715,7 +7646,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="20"/>
       <c r="D131" s="20">
@@ -7736,7 +7667,7 @@
         <v>124</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13">
@@ -7755,7 +7686,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20">
@@ -7776,7 +7707,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13">
@@ -7795,7 +7726,7 @@
         <v>127</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="20">
@@ -7816,7 +7747,7 @@
         <v>128</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13">
@@ -7835,7 +7766,7 @@
         <v>129</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20">
@@ -7855,9 +7786,13 @@
       <c r="A138" s="13">
         <v>130</v>
       </c>
-      <c r="B138" s="15"/>
+      <c r="B138" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
+      <c r="D138" s="13">
+        <v>1</v>
+      </c>
       <c r="E138" s="16"/>
       <c r="F138" s="13">
         <f t="shared" si="1"/>
@@ -7924,7 +7859,7 @@
       <c r="D142" s="13"/>
       <c r="E142" s="16"/>
       <c r="F142" s="13">
-        <f t="shared" ref="F142:F149" si="2">F141+1</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="I142" s="17"/>
@@ -7939,7 +7874,7 @@
       <c r="D143" s="20"/>
       <c r="E143" s="22"/>
       <c r="F143" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F143:F150" si="2">F142+1</f>
         <v>135</v>
       </c>
       <c r="G143" s="23"/>
@@ -8015,7 +7950,7 @@
       <c r="A148" s="13">
         <v>140</v>
       </c>
-      <c r="B148" s="13"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="16"/>
@@ -8030,7 +7965,7 @@
       <c r="A149" s="20">
         <v>141</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="22"/>
@@ -8043,9 +7978,24 @@
       <c r="I149" s="24"/>
       <c r="J149" s="20"/>
     </row>
+    <row r="150" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13">
+        <v>142</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="13">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="I150" s="17"/>
+      <c r="J150" s="13"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:J149">
-    <sortCondition ref="B9:B149"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:J150">
+    <sortCondition ref="B9:B150"/>
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:J1"/>
@@ -8088,7 +8038,7 @@
     <col min="11" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="49.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
         <v>407</v>
       </c>
@@ -8315,7 +8265,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>6</v>
       </c>
@@ -8331,7 +8281,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>7</v>
       </c>
@@ -10573,13 +10523,13 @@
     <col min="1" max="1" width="7.5" style="28" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="13.1640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="49.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
         <v>408</v>
       </c>
@@ -12098,8 +12048,8 @@
     <col min="1" max="1" width="7.5" style="28" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="13.1640625" style="28"/>
   </cols>
@@ -12113,7 +12063,7 @@
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
     </row>
-    <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63" t="s">
         <v>413</v>
       </c>
@@ -13324,8 +13274,8 @@
     <col min="1" max="1" width="7.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="67.6640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="13.1640625" style="28"/>
   </cols>
@@ -13955,7 +13905,7 @@
     <col min="27" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="49.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
         <v>411</v>
       </c>
@@ -16053,7 +16003,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="28" customWidth="1"/>
     <col min="3" max="4" width="14.1640625" style="28" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="28" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" style="28" customWidth="1"/>
@@ -16061,7 +16011,7 @@
     <col min="27" max="16384" width="13.1640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="49.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
         <v>412</v>
       </c>
@@ -18695,9 +18645,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18756,11 +18706,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.15">
+      <c r="A6" s="45">
+        <v>45337</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
@@ -18798,4 +18756,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3ce0b61c-3e9d-4790-85f1-d44a713bf642}" enabled="0" method="" siteId="{3ce0b61c-3e9d-4790-85f1-d44a713bf642}" removed="1"/>
+</clbl:labelList>
 </file>